--- a/data/georgia_census/mcxeta-mtianeti/dusheti/average_wages.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/dusheti/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305418BC-A5DC-4974-958E-5F1517571ABF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB463683-9911-4979-A390-8E572B3C2C70}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4176259B-EF18-4242-9BB1-C55C13967830}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8399935F-DA60-46B1-BE57-125796FB484F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ABD9AC3-6D65-4696-9E0C-5EF300D14CD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28928084-63F5-492B-9001-2AF5DD7469D4}"/>
 </file>